--- a/examples/monte_carlo/data/scenarios.xlsx
+++ b/examples/monte_carlo/data/scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925694CC-1CEF-4F3D-8C04-A3D185670531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D297D29-D420-47A0-8CF1-B6AA4A75A676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="88">
   <si>
     <t>Scenario</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>Each row corresponds with a different Connection in data.xlsx, and each column a user-defined scenario</t>
+  </si>
+  <si>
+    <t>include_emission_limit</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA36A56-E79F-4C6A-9436-33D684E3F151}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -972,9 +975,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1121,71 +1126,94 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="14">
-        <v>100</v>
-      </c>
-      <c r="C8" s="14">
-        <v>100</v>
-      </c>
-      <c r="D8" s="14">
-        <v>100</v>
-      </c>
-      <c r="E8" s="14">
-        <v>100</v>
-      </c>
-      <c r="F8" s="14">
-        <v>100</v>
-      </c>
-      <c r="G8" s="14">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="14">
+        <v>100</v>
+      </c>
+      <c r="C9" s="14">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14">
+        <v>100</v>
+      </c>
+      <c r="F9" s="14">
+        <v>100</v>
+      </c>
+      <c r="G9" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <v>1000</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C10" s="14">
         <v>1000</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>1000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="14">
         <v>1000</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="14">
         <v>1000</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>1000</v>
       </c>
     </row>

--- a/examples/monte_carlo/data/scenarios.xlsx
+++ b/examples/monte_carlo/data/scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D297D29-D420-47A0-8CF1-B6AA4A75A676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A12B49-EF9F-4419-84C4-9B828995D016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="91">
   <si>
     <t>Scenario</t>
   </si>
@@ -448,6 +448,55 @@
   </si>
   <si>
     <t>include_emission_limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_emission_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the constraint from the 'Emission' sheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_min_capacity_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the constraint from the 'MinCapacity' sheet</t>
+    </r>
+  </si>
+  <si>
+    <t>include_min_capacity_limit</t>
   </si>
 </sst>
 </file>
@@ -554,7 +603,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -830,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA36A56-E79F-4C6A-9436-33D684E3F151}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,72 +976,84 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -975,38 +1065,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1061,22 +1151,22 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1149,75 +1239,103 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="14">
-        <v>100</v>
-      </c>
-      <c r="C9" s="14">
-        <v>100</v>
-      </c>
-      <c r="D9" s="14">
-        <v>100</v>
-      </c>
-      <c r="E9" s="14">
-        <v>100</v>
-      </c>
-      <c r="F9" s="14">
-        <v>100</v>
-      </c>
-      <c r="G9" s="14">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14">
+        <v>100</v>
+      </c>
+      <c r="C10" s="14">
+        <v>100</v>
+      </c>
+      <c r="D10" s="14">
+        <v>100</v>
+      </c>
+      <c r="E10" s="14">
+        <v>100</v>
+      </c>
+      <c r="F10" s="14">
+        <v>100</v>
+      </c>
+      <c r="G10" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B11" s="14">
         <v>1000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>1000</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>1000</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>1000</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <v>1000</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD8">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1234,26 +1352,26 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1694,6 +1812,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1710,26 +1833,26 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1932,6 +2055,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1940,35 +2068,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2213,6 +2339,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>